--- a/doc/2023年上期/API一覧.xlsx
+++ b/doc/2023年上期/API一覧.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="164">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -59,7 +59,8 @@
     <t>新規</t>
   </si>
   <si>
-    <t>シート「週間タレント別情報検索BFF」</t>
+    <t>シート「API情報」
+・週間タレント別情報検索BFF</t>
   </si>
   <si>
     <t>BE「オンエア管理テーブル検索」
@@ -94,6 +95,14 @@
 対象年月と週のパラメータを削除、週From、週Toの取得を削除</t>
   </si>
   <si>
+    <t>シート「API情報」
+・週間タレント別情報検索BFF
+シート「タレント出演情報検索の結合イメージ</t>
+  </si>
+  <si>
+    <t>戻り値に「出演番組ID（直近）」を追加</t>
+  </si>
+  <si>
     <t>※DTO　（テーブル列一式）</t>
   </si>
   <si>
@@ -156,17 +165,47 @@
     <t>-</t>
   </si>
   <si>
-    <t>以下はList形式に設定
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">以下はList形式に設定
  タレントID
  タレント名
  週間出演番組本数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> 出演番組ID（直近）</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
  出演番組（直近）
  オンエア日（直近）
  対象週(FROM)
  対象週(TO)</t>
-  </si>
-  <si>
-    <t>※レスポンスのオンエア管理テーブルDTOがNULLの場合、(5)の日付設定だけ行う。
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>※レスポンスのオンエア管理テーブルDTOがNULLの場合、(5)の日付設定だけ行う。
 (1) BE「週間タレント別情報検索」より取得したレスポンスで以下の条件でデータを絞る。
 （別シート_タレント出演情報検索の結合イメージ　参照）
 【取得条件】
@@ -178,12 +217,29 @@
 (2) 絞った結果をタレントID、タレント名で集約化する。集約時に、タレントID,タレント名、週間出演番組本数のレコードの形にする。
 （レスポンスのベース）
 (3)　(1)よりタレントIDをキーとして取得して、オンエア日でソートして、最も近いオンエア日の日付の行だけを取得する。
-取得後、タレントID、出演番組（直近）【番組名】、オンエア日（直近）【オンエア日】のレコードの形にする。
+取得後、タレントID、</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>出演番組ID（直近）、</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>出演番組（直近）【番組名】、オンエア日（直近）【オンエア日】のレコードの形にする。
 (4) (2)に対して、(3)を組み合わせて、レスポンスの形にする。
 (5)BE「年月週の開始終了日付検索」より取得したレスポンスを以下のように設定する。
 ・対象週(FROM)へ、年月週管理マスタDTO .週の開始日（日曜日）を設定
 ・対象週(TO)へ、年月週管理マスタDTO .週の終了日（土曜日）を設定
 (6) (4) + (5)を組み合わせて、レスポンスの形にする。</t>
+    </r>
   </si>
   <si>
     <t>週間タレント別情報検索</t>
@@ -642,6 +698,9 @@
     <t>【オンエア日が最近を取得時】</t>
   </si>
   <si>
+    <t>出演番組ID（直近）</t>
+  </si>
+  <si>
     <t>出演番組（直近）</t>
   </si>
   <si>
@@ -699,7 +758,7 @@
     <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm"/>
     <numFmt numFmtId="166" formatCode="yyyy/MM/dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -748,6 +807,11 @@
       <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -962,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1170,7 +1234,13 @@
     <xf borderId="6" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="6" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="15" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1183,9 +1253,9 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="9" fontId="11" numFmtId="164" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="9" fontId="11" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="10" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="14" fillId="9" fontId="12" numFmtId="164" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="9" fontId="12" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="10" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1543,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="14">
-        <v>45128.0</v>
+        <v>45316.0</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>7</v>
@@ -1693,11 +1763,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+    <row r="13" ht="48.75" customHeight="1">
+      <c r="B13" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>45316.0</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="B14" s="17"/>
@@ -2870,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="14">
-        <v>45128.0</v>
+        <v>45316.0</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>7</v>
@@ -2929,7 +3007,7 @@
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -2998,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3006,7 +3084,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -3045,17 +3123,17 @@
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
       <c r="N7" s="35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
       <c r="T7" s="35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -3072,70 +3150,70 @@
       <c r="A8" s="29"/>
       <c r="B8" s="10"/>
       <c r="C8" s="36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="J8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="K8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="L8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>30</v>
-      </c>
       <c r="M8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>29</v>
-      </c>
       <c r="P8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="36" t="s">
         <v>34</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="X8" s="36" t="s">
-        <v>32</v>
       </c>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
@@ -3147,73 +3225,73 @@
     <row r="9" ht="91.5" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="K9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="L9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>40</v>
-      </c>
       <c r="M9" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N9" s="42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S9" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T9" s="43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U9" s="44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V9" s="44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W9" s="43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X9" s="44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
@@ -3243,19 +3321,19 @@
       <c r="R10" s="45"/>
       <c r="S10" s="46"/>
       <c r="T10" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U10" s="47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V10" s="43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W10" s="43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X10" s="47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
@@ -3285,19 +3363,19 @@
       <c r="R11" s="48"/>
       <c r="S11" s="49"/>
       <c r="T11" s="43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U11" s="43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V11" s="43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W11" s="43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X11" s="44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
@@ -3316,52 +3394,52 @@
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
       <c r="I12" s="43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M12" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="43" t="s">
-        <v>60</v>
-      </c>
       <c r="O12" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="43" t="s">
-        <v>60</v>
-      </c>
       <c r="R12" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S12" s="44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T12" s="43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U12" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="V12" s="44" t="s">
-        <v>62</v>
-      </c>
       <c r="W12" s="43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X12" s="44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
@@ -3373,73 +3451,73 @@
     <row r="13" ht="157.5" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="52" t="s">
+      <c r="K13" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>69</v>
-      </c>
       <c r="L13" s="54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N13" s="42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T13" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U13" s="44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V13" s="44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W13" s="43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X13" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
@@ -3469,19 +3547,19 @@
       <c r="R14" s="45"/>
       <c r="S14" s="45"/>
       <c r="T14" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U14" s="56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V14" s="56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W14" s="57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X14" s="58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
@@ -3511,19 +3589,19 @@
       <c r="R15" s="45"/>
       <c r="S15" s="45"/>
       <c r="T15" s="43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U15" s="44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V15" s="43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W15" s="43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X15" s="44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
@@ -3553,19 +3631,19 @@
       <c r="R16" s="45"/>
       <c r="S16" s="45"/>
       <c r="T16" s="43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U16" s="44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V16" s="43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W16" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X16" s="47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y16" s="24"/>
       <c r="Z16" s="24"/>
@@ -3595,19 +3673,19 @@
       <c r="R17" s="48"/>
       <c r="S17" s="45"/>
       <c r="T17" s="43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U17" s="44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="V17" s="43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W17" s="43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X17" s="44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
@@ -3626,55 +3704,55 @@
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
       <c r="I18" s="43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M18" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="43" t="s">
-        <v>60</v>
-      </c>
       <c r="O18" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P18" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="Q18" s="43" t="s">
-        <v>60</v>
-      </c>
       <c r="R18" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S18" s="44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T18" s="43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="V18" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="V18" s="44" t="s">
-        <v>62</v>
-      </c>
       <c r="W18" s="43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X18" s="44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y18" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
@@ -3688,70 +3766,70 @@
         <v>3.0</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F19" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="62" t="s">
+      <c r="K19" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="61" t="s">
-        <v>92</v>
-      </c>
       <c r="L19" s="51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M19" s="60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N19" s="55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O19" s="61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P19" s="60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R19" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="S19" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="T19" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="S19" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="T19" s="55" t="s">
-        <v>95</v>
-      </c>
       <c r="U19" s="63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V19" s="60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="W19" s="60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X19" s="61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
@@ -10945,12 +11023,12 @@
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="T7:X7"/>
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:H7"/>
     <mergeCell ref="I6:M7"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
@@ -11015,7 +11093,7 @@
     <row r="1" ht="18.75" customHeight="1"/>
     <row r="2" ht="18.75" customHeight="1">
       <c r="B2" s="65" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
@@ -11023,79 +11101,79 @@
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="65" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="66"/>
       <c r="L4" s="65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="B5" s="67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J5" s="67" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="P5" s="67" t="s">
         <v>112</v>
-      </c>
-      <c r="O5" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="P5" s="67" t="s">
-        <v>110</v>
       </c>
       <c r="Q5" s="67" t="s">
         <v>4</v>
       </c>
       <c r="S5" s="67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T5" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U5" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="V5" s="67" t="s">
+      <c r="W5" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="X5" s="67" t="s">
         <v>112</v>
-      </c>
-      <c r="W5" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="X5" s="67" t="s">
-        <v>110</v>
       </c>
       <c r="Y5" s="67" t="s">
         <v>4</v>
@@ -11103,19 +11181,19 @@
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="B6" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C6" s="70">
         <v>45034.493055555555</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G6" s="17">
         <v>3.0</v>
@@ -11130,10 +11208,10 @@
         <v>45017.0</v>
       </c>
       <c r="L6" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N6" s="17">
         <v>1.0</v>
@@ -11148,10 +11226,10 @@
         <v>45034.0</v>
       </c>
       <c r="S6" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U6" s="17">
         <v>8.0</v>
@@ -11171,19 +11249,19 @@
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="B7" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" s="70">
         <v>45034.493055555555</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G7" s="17">
         <v>3.0</v>
@@ -11198,10 +11276,10 @@
         <v>45017.0</v>
       </c>
       <c r="L7" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N7" s="17">
         <v>1.0</v>
@@ -11216,10 +11294,10 @@
         <v>45034.0</v>
       </c>
       <c r="S7" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="U7" s="17">
         <v>5.0</v>
@@ -11239,19 +11317,19 @@
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="B8" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="70">
         <v>45035.493055555555</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G8" s="17">
         <v>3.0</v>
@@ -11266,10 +11344,10 @@
         <v>45017.0</v>
       </c>
       <c r="L8" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N8" s="17">
         <v>2.0</v>
@@ -11286,19 +11364,19 @@
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="B9" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C9" s="70">
         <v>45034.493055555555</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G9" s="17">
         <v>3.0</v>
@@ -11313,10 +11391,10 @@
         <v>45017.0</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N9" s="17">
         <v>1.0</v>
@@ -11333,19 +11411,19 @@
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="B10" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C10" s="70">
         <v>45034.493055555555</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G10" s="17">
         <v>3.0</v>
@@ -11360,10 +11438,10 @@
         <v>45017.0</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N10" s="17">
         <v>1.0</v>
@@ -11380,19 +11458,19 @@
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="B11" s="69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" s="70">
         <v>45034.989583333336</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G11" s="17">
         <v>3.0</v>
@@ -11409,19 +11487,19 @@
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="B12" s="69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C12" s="70">
         <v>45034.989583333336</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G12" s="17">
         <v>3.0</v>
@@ -11442,61 +11520,61 @@
     <row r="14" ht="18.75" customHeight="1"/>
     <row r="15" ht="18.75" customHeight="1">
       <c r="B15" s="71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="B16" s="72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="B17" s="67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I17" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="B18" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C18" s="70">
         <v>45034.493055555555</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="69" t="s">
-        <v>115</v>
-      </c>
       <c r="G18" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="69" t="s">
         <v>118</v>
-      </c>
-      <c r="H18" s="69" t="s">
-        <v>116</v>
       </c>
       <c r="I18" s="17">
         <v>3.0</v>
@@ -11504,25 +11582,25 @@
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="B19" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C19" s="70">
         <v>45034.493055555555</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E19" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="69" t="s">
         <v>118</v>
-      </c>
-      <c r="H19" s="69" t="s">
-        <v>116</v>
       </c>
       <c r="I19" s="17">
         <v>3.0</v>
@@ -11530,25 +11608,25 @@
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="B20" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C20" s="70">
         <v>45035.493055555555</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="69" t="s">
         <v>118</v>
-      </c>
-      <c r="H20" s="69" t="s">
-        <v>116</v>
       </c>
       <c r="I20" s="17">
         <v>3.0</v>
@@ -11556,25 +11634,25 @@
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="B21" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="70">
         <v>45034.493055555555</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="69" t="s">
         <v>118</v>
-      </c>
-      <c r="H21" s="69" t="s">
-        <v>116</v>
       </c>
       <c r="I21" s="17">
         <v>3.0</v>
@@ -11582,25 +11660,25 @@
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="B22" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C22" s="70">
         <v>45034.493055555555</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G22" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="69" t="s">
         <v>118</v>
-      </c>
-      <c r="H22" s="69" t="s">
-        <v>116</v>
       </c>
       <c r="I22" s="17">
         <v>3.0</v>
@@ -11608,25 +11686,25 @@
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="B23" s="69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" s="70">
         <v>45034.989583333336</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E23" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="H23" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I23" s="17">
         <v>3.0</v>
@@ -11634,25 +11712,25 @@
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="B24" s="69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C24" s="70">
         <v>45034.989583333336</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I24" s="17">
         <v>3.0</v>
@@ -11661,41 +11739,41 @@
     <row r="25" ht="18.75" customHeight="1"/>
     <row r="26" ht="18.75" customHeight="1">
       <c r="B26" s="72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D26" s="71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="B27" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="B28" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D28" s="17">
         <v>1.0</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F28" s="17">
         <v>3.0</v>
@@ -11703,16 +11781,16 @@
     </row>
     <row r="29" ht="18.75" customHeight="1">
       <c r="B29" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D29" s="17">
         <v>2.0</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F29" s="17">
         <v>3.0</v>
@@ -11720,16 +11798,16 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="B30" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D30" s="17">
         <v>2.0</v>
       </c>
       <c r="E30" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F30" s="17">
         <v>3.0</v>
@@ -11737,16 +11815,16 @@
     </row>
     <row r="31" ht="18.75" customHeight="1">
       <c r="B31" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D31" s="17">
         <v>1.0</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F31" s="17">
         <v>3.0</v>
@@ -11754,16 +11832,16 @@
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="B32" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D32" s="17">
         <v>1.0</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F32" s="17">
         <v>3.0</v>
@@ -11772,734 +11850,788 @@
     <row r="33" ht="18.75" customHeight="1"/>
     <row r="34" ht="18.75" customHeight="1">
       <c r="B34" s="72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1"/>
     <row r="36" ht="18.75" customHeight="1">
       <c r="B36" s="65" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
       <c r="B37" s="71" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J37" s="71" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L37" s="65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
       <c r="B38" s="67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D38" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G38" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="J38" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="67" t="s">
+      <c r="K38" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="L38" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="N38" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="J38" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="K38" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="L38" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="M38" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="N38" s="67" t="s">
-        <v>111</v>
-      </c>
       <c r="O38" s="67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P38" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1">
       <c r="B39" s="76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C39" s="77">
         <v>45034.493055555555</v>
       </c>
       <c r="D39" s="76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E39" s="74" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F39" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="76" t="s">
-        <v>115</v>
-      </c>
       <c r="H39" s="78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J39" s="76" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K39" s="77">
         <v>45034.493055555555</v>
       </c>
       <c r="L39" s="76" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M39" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N39" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="O39" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" s="78" t="s">
         <v>120</v>
-      </c>
-      <c r="O39" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="P39" s="78" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1">
       <c r="J40" s="69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K40" s="70">
         <v>45034.989583333336</v>
       </c>
       <c r="L40" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M40" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1"/>
     <row r="42" ht="18.75" customHeight="1">
       <c r="B42" s="71" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D42" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="J42" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="L42" s="65" t="s">
         <v>140</v>
-      </c>
-      <c r="J42" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="L42" s="65" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
       <c r="B43" s="67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C43" s="68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F43" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G43" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="H43" s="67" t="s">
+      <c r="K43" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="M43" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="N43" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="J43" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="K43" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="L43" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="M43" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="N43" s="67" t="s">
-        <v>111</v>
-      </c>
       <c r="O43" s="67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P43" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1">
       <c r="B44" s="76" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C44" s="77">
         <v>45034.989583333336</v>
       </c>
       <c r="D44" s="76" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E44" s="74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F44" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="H44" s="78" t="s">
-        <v>121</v>
-      </c>
       <c r="J44" s="76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K44" s="77">
         <v>45034.493055555555</v>
       </c>
       <c r="L44" s="76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M44" s="74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N44" s="78" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O44" s="76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P44" s="78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="B45" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C45" s="70">
         <v>45035.493055555555</v>
       </c>
       <c r="D45" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E45" s="74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G45" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1"/>
     <row r="47" ht="18.75" customHeight="1">
       <c r="B47" s="71" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="B48" s="67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D48" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F48" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G48" s="67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H48" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" ht="18.75" customHeight="1">
       <c r="B49" s="76" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C49" s="77">
         <v>45034.493055555555</v>
       </c>
       <c r="D49" s="76" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E49" s="74" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F49" s="78" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G49" s="76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H49" s="78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1"/>
     <row r="51" ht="18.75" customHeight="1">
       <c r="B51" s="65" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1">
       <c r="B52" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C52" s="73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D52" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="79" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="E52" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="80" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1">
       <c r="B53" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C53" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" s="77">
+      <c r="E53" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1">
       <c r="B54" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="77">
+      <c r="F54" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="55" ht="18.75" customHeight="1">
       <c r="B55" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C55" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="77">
+      <c r="F55" s="77">
         <v>45034.989583333336</v>
       </c>
     </row>
     <row r="56" ht="18.75" customHeight="1">
       <c r="B56" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" s="77">
+        <v>127</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="57" ht="18.75" customHeight="1">
       <c r="B57" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" s="77">
+        <v>129</v>
+      </c>
+      <c r="D57" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="58" ht="18.75" customHeight="1"/>
     <row r="59" ht="18.75" customHeight="1">
-      <c r="B59" s="80" t="s">
-        <v>147</v>
+      <c r="B59" s="82" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="60" ht="18.75" customHeight="1">
       <c r="B60" s="71" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H60" s="71" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" ht="18.75" customHeight="1">
       <c r="B61" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C61" s="73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D61" s="74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E61" s="67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F61" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H61" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I61" s="73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J61" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="K61" s="79" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="K61" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="L61" s="80" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="62" ht="18.75" customHeight="1">
       <c r="B62" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C62" s="75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D62" s="17">
         <v>1.0</v>
       </c>
       <c r="E62" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F62" s="17">
         <v>3.0</v>
       </c>
       <c r="H62" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I62" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="J62" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="J62" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="K62" s="77">
+      <c r="K62" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="L62" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="63" ht="18.75" customHeight="1">
       <c r="B63" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D63" s="17">
         <v>2.0</v>
       </c>
       <c r="E63" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F63" s="17">
         <v>3.0</v>
       </c>
       <c r="H63" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I63" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="J63" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="K63" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="J63" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="K63" s="77">
+      <c r="L63" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="64" ht="18.75" customHeight="1">
       <c r="B64" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D64" s="17">
         <v>2.0</v>
       </c>
       <c r="E64" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F64" s="17">
         <v>3.0</v>
       </c>
       <c r="H64" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I64" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="J64" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="K64" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="J64" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="K64" s="77">
+      <c r="L64" s="77">
         <v>45034.989583333336</v>
       </c>
     </row>
     <row r="65" ht="18.75" customHeight="1">
       <c r="B65" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D65" s="17">
         <v>1.0</v>
       </c>
       <c r="E65" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F65" s="17">
         <v>3.0</v>
       </c>
       <c r="H65" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I65" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="J65" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="K65" s="77">
+        <v>127</v>
+      </c>
+      <c r="J65" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="K65" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="L65" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="66" ht="18.75" customHeight="1">
       <c r="B66" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D66" s="17">
         <v>1.0</v>
       </c>
       <c r="E66" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F66" s="17">
         <v>3.0</v>
       </c>
       <c r="H66" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I66" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="J66" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="K66" s="77">
+        <v>129</v>
+      </c>
+      <c r="J66" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="K66" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="L66" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="67" ht="18.75" customHeight="1">
       <c r="B67" s="71"/>
-      <c r="C67" s="81"/>
+      <c r="C67" s="83"/>
       <c r="H67" s="71"/>
-      <c r="I67" s="81"/>
+      <c r="I67" s="83"/>
     </row>
     <row r="68" ht="18.75" customHeight="1">
       <c r="B68" s="71" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" ht="18.75" customHeight="1">
       <c r="B69" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C69" s="73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D69" s="74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E69" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="F69" s="79" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="F69" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" s="80" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="70" ht="18.75" customHeight="1">
       <c r="B70" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D70" s="17">
         <v>1.0</v>
       </c>
-      <c r="E70" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F70" s="77">
+      <c r="E70" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G70" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="71" ht="18.75" customHeight="1">
       <c r="B71" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C71" s="75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D71" s="17">
         <v>2.0</v>
       </c>
-      <c r="E71" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F71" s="77">
+      <c r="E71" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G71" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="72" ht="18.75" customHeight="1">
       <c r="B72" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D72" s="17">
         <v>2.0</v>
       </c>
-      <c r="E72" s="78" t="s">
+      <c r="E72" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="F72" s="77">
+      <c r="F72" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="77">
         <v>45034.989583333336</v>
       </c>
     </row>
     <row r="73" ht="18.75" customHeight="1">
       <c r="B73" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D73" s="17">
         <v>1.0</v>
       </c>
-      <c r="E73" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F73" s="77">
+      <c r="E73" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F73" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="74" ht="18.75" customHeight="1">
       <c r="B74" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D74" s="17">
         <v>1.0</v>
       </c>
-      <c r="E74" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F74" s="77">
+      <c r="E74" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74" s="77">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="75" ht="18.75" customHeight="1"/>
     <row r="76" ht="18.75" customHeight="1">
-      <c r="B76" s="80" t="s">
-        <v>151</v>
+      <c r="B76" s="82" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="77" ht="18.75" customHeight="1">
       <c r="B77" s="65" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" ht="18.75" customHeight="1">
       <c r="B78" s="67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C78" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" ht="18.75" customHeight="1">
       <c r="B79" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C79" s="17">
         <v>3.0</v>
@@ -12508,152 +12640,152 @@
     <row r="80" ht="18.75" customHeight="1"/>
     <row r="81" ht="18.75" customHeight="1"/>
     <row r="82" ht="18.75" customHeight="1">
-      <c r="B82" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="83"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
+      <c r="B82" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
     </row>
     <row r="83" ht="18.75" customHeight="1">
-      <c r="B83" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="D83" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="E83" s="86" t="s">
+      <c r="B83" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="G83" s="86" t="s">
+      <c r="C83" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" s="88" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="84" ht="18.75" customHeight="1">
-      <c r="B84" s="87">
+      <c r="B84" s="89">
         <v>202303.0</v>
       </c>
-      <c r="C84" s="88">
+      <c r="C84" s="90">
         <v>5.0</v>
       </c>
-      <c r="D84" s="89">
+      <c r="D84" s="91">
         <v>45011.0</v>
       </c>
-      <c r="E84" s="89">
+      <c r="E84" s="91">
         <v>45017.0</v>
       </c>
-      <c r="F84" s="90">
+      <c r="F84" s="92">
         <v>45049.0</v>
       </c>
-      <c r="G84" s="90">
+      <c r="G84" s="92">
         <v>45049.0</v>
       </c>
     </row>
     <row r="85" ht="18.75" customHeight="1">
-      <c r="B85" s="87">
+      <c r="B85" s="89">
         <v>202304.0</v>
       </c>
-      <c r="C85" s="88">
+      <c r="C85" s="90">
         <v>1.0</v>
       </c>
-      <c r="D85" s="89">
+      <c r="D85" s="91">
         <v>45018.0</v>
       </c>
-      <c r="E85" s="89">
+      <c r="E85" s="91">
         <v>45024.0</v>
       </c>
-      <c r="F85" s="90">
+      <c r="F85" s="92">
         <v>45049.0</v>
       </c>
-      <c r="G85" s="90">
+      <c r="G85" s="92">
         <v>45049.0</v>
       </c>
     </row>
     <row r="86" ht="18.75" customHeight="1">
-      <c r="B86" s="87">
+      <c r="B86" s="89">
         <v>202304.0</v>
       </c>
-      <c r="C86" s="88">
+      <c r="C86" s="90">
         <v>2.0</v>
       </c>
-      <c r="D86" s="89">
+      <c r="D86" s="91">
         <v>45025.0</v>
       </c>
-      <c r="E86" s="89">
+      <c r="E86" s="91">
         <v>45031.0</v>
       </c>
-      <c r="F86" s="90">
+      <c r="F86" s="92">
         <v>45049.0</v>
       </c>
-      <c r="G86" s="90">
+      <c r="G86" s="92">
         <v>45049.0</v>
       </c>
     </row>
     <row r="87" ht="18.75" customHeight="1">
-      <c r="B87" s="87">
+      <c r="B87" s="89">
         <v>202304.0</v>
       </c>
-      <c r="C87" s="88">
+      <c r="C87" s="90">
         <v>3.0</v>
       </c>
-      <c r="D87" s="89">
+      <c r="D87" s="91">
         <v>45032.0</v>
       </c>
-      <c r="E87" s="89">
+      <c r="E87" s="91">
         <v>45038.0</v>
       </c>
-      <c r="F87" s="90">
+      <c r="F87" s="92">
         <v>45049.0</v>
       </c>
-      <c r="G87" s="90">
+      <c r="G87" s="92">
         <v>45049.0</v>
       </c>
     </row>
     <row r="88" ht="18.75" customHeight="1">
-      <c r="B88" s="87">
+      <c r="B88" s="89">
         <v>202304.0</v>
       </c>
-      <c r="C88" s="88">
+      <c r="C88" s="90">
         <v>4.0</v>
       </c>
-      <c r="D88" s="89">
+      <c r="D88" s="91">
         <v>45039.0</v>
       </c>
-      <c r="E88" s="89">
+      <c r="E88" s="91">
         <v>45045.0</v>
       </c>
-      <c r="F88" s="90">
+      <c r="F88" s="92">
         <v>45049.0</v>
       </c>
-      <c r="G88" s="90">
+      <c r="G88" s="92">
         <v>45049.0</v>
       </c>
     </row>
     <row r="89" ht="18.75" customHeight="1">
-      <c r="B89" s="87">
+      <c r="B89" s="89">
         <v>202304.0</v>
       </c>
-      <c r="C89" s="88">
+      <c r="C89" s="90">
         <v>5.0</v>
       </c>
-      <c r="D89" s="89">
+      <c r="D89" s="91">
         <v>45046.0</v>
       </c>
-      <c r="E89" s="89">
+      <c r="E89" s="91">
         <v>45052.0</v>
       </c>
-      <c r="F89" s="90">
+      <c r="F89" s="92">
         <v>45049.0</v>
       </c>
-      <c r="G89" s="90">
+      <c r="G89" s="92">
         <v>45049.0</v>
       </c>
     </row>
@@ -12662,144 +12794,162 @@
     <row r="92" ht="18.75" customHeight="1"/>
     <row r="93" ht="18.75" customHeight="1">
       <c r="B93" s="71" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" ht="18.75" customHeight="1">
       <c r="B94" s="67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C94" s="73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D94" s="74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E94" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="F94" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="G94" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="H94" s="79" t="s">
-        <v>160</v>
+        <v>147</v>
+      </c>
+      <c r="F94" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="G94" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="H94" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="I94" s="80" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="95" ht="18.75" customHeight="1">
       <c r="B95" s="69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C95" s="75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D95" s="17">
         <v>1.0</v>
       </c>
-      <c r="E95" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F95" s="77">
+      <c r="E95" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F95" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G95" s="77">
         <v>45034.493055555555</v>
       </c>
-      <c r="G95" s="89">
+      <c r="H95" s="91">
         <v>45032.0</v>
       </c>
-      <c r="H95" s="89">
+      <c r="I95" s="91">
         <v>45038.0</v>
       </c>
     </row>
     <row r="96" ht="18.75" customHeight="1">
       <c r="B96" s="69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C96" s="75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D96" s="17">
         <v>2.0</v>
       </c>
-      <c r="E96" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F96" s="77">
+      <c r="E96" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G96" s="77">
         <v>45034.493055555555</v>
       </c>
-      <c r="G96" s="89">
+      <c r="H96" s="91">
         <v>45032.0</v>
       </c>
-      <c r="H96" s="89">
+      <c r="I96" s="91">
         <v>45038.0</v>
       </c>
     </row>
     <row r="97" ht="18.75" customHeight="1">
       <c r="B97" s="69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C97" s="75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D97" s="17">
         <v>2.0</v>
       </c>
-      <c r="E97" s="78" t="s">
+      <c r="E97" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="F97" s="77">
+      <c r="F97" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="G97" s="77">
         <v>45034.989583333336</v>
       </c>
-      <c r="G97" s="89">
+      <c r="H97" s="91">
         <v>45032.0</v>
       </c>
-      <c r="H97" s="89">
+      <c r="I97" s="91">
         <v>45038.0</v>
       </c>
     </row>
     <row r="98" ht="18.75" customHeight="1">
       <c r="B98" s="69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C98" s="75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D98" s="17">
         <v>1.0</v>
       </c>
-      <c r="E98" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F98" s="77">
+      <c r="E98" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F98" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G98" s="77">
         <v>45034.493055555555</v>
       </c>
-      <c r="G98" s="89">
+      <c r="H98" s="91">
         <v>45032.0</v>
       </c>
-      <c r="H98" s="89">
+      <c r="I98" s="91">
         <v>45038.0</v>
       </c>
     </row>
     <row r="99" ht="18.75" customHeight="1">
       <c r="B99" s="69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C99" s="75" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D99" s="17">
         <v>1.0</v>
       </c>
-      <c r="E99" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F99" s="77">
+      <c r="E99" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G99" s="77">
         <v>45034.493055555555</v>
       </c>
-      <c r="G99" s="89">
+      <c r="H99" s="91">
         <v>45032.0</v>
       </c>
-      <c r="H99" s="89">
+      <c r="I99" s="91">
         <v>45038.0</v>
       </c>
     </row>

--- a/doc/2023年上期/API一覧.xlsx
+++ b/doc/2023年上期/API一覧.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="166">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -101,6 +101,13 @@
   </si>
   <si>
     <t>戻り値に「出演番組ID（直近）」を追加</t>
+  </si>
+  <si>
+    <t>シート「API情報」
+・タレント週間出演情報検索BFF</t>
+  </si>
+  <si>
+    <t>戻り値に「ID（直近）」を追加</t>
   </si>
   <si>
     <t>※DTO　（テーブル列一式）</t>
@@ -347,7 +354,30 @@
 ・タレントID</t>
   </si>
   <si>
-    <t>以下はList形式に設定
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">以下はList形式に設定
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
 タレント名
 出演者ジャンル
 番組ID
@@ -358,11 +388,36 @@
 番組ジャンル
 対象週(FROM)
 対象週(TO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※レスポンスのオンエア管理テーブルDTOがNULLの場合、(4)の日付設定だけ行う。
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">※レスポンスのオンエア管理テーブルDTOがNULLの場合、(4)の日付設定だけ行う。
 (1) BE「タレント週間出演情報検索」より取得したレスポンスで以下の条件でデータを絞る。
 取得項目：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>・オンエア管理テーブルDTO.ID、
+→【レスポンス.ID】</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS PGothic"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
 ・オンエア管理テーブルDTO.オンエア日、
 　→ YYYY/MM/DDの形式で【レスポンス.オンエア日】
 　→ HH:SSの形式で【レスポンス.放送時間】
@@ -403,6 +458,7 @@
 ・対象週(FROM)へ、年月週管理マスタDTO .週の開始日（日曜日）を設定
 ・対象週(TO)へ、年月週管理マスタDTO .週の終了日（土曜日）を設定
 </t>
+    </r>
   </si>
   <si>
     <t>タレント週間出演情報検索</t>
@@ -1026,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1154,9 +1210,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1613,7 +1666,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="14">
-        <v>45316.0</v>
+        <v>45317.0</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>7</v>
@@ -1777,11 +1830,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+    <row r="14" ht="34.5" customHeight="1">
+      <c r="B14" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="22">
+        <v>45317.0</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="B15" s="17"/>
@@ -2948,7 +3009,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="14">
-        <v>45316.0</v>
+        <v>45317.0</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>7</v>
@@ -3007,7 +3068,7 @@
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -3076,7 +3137,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3084,7 +3145,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -3123,17 +3184,17 @@
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
       <c r="N7" s="35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
       <c r="T7" s="35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -3150,70 +3211,70 @@
       <c r="A8" s="29"/>
       <c r="B8" s="10"/>
       <c r="C8" s="36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="J8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="K8" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="L8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>32</v>
-      </c>
       <c r="M8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>31</v>
-      </c>
       <c r="P8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="36" t="s">
         <v>36</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="36" t="s">
-        <v>34</v>
       </c>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
@@ -3225,73 +3286,73 @@
     <row r="9" ht="91.5" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="K9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="L9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>42</v>
-      </c>
       <c r="M9" s="39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N9" s="42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S9" s="39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T9" s="43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U9" s="44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V9" s="44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W9" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X9" s="44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
@@ -3321,19 +3382,19 @@
       <c r="R10" s="45"/>
       <c r="S10" s="46"/>
       <c r="T10" s="43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U10" s="47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V10" s="43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W10" s="43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X10" s="47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
@@ -3363,19 +3424,19 @@
       <c r="R11" s="48"/>
       <c r="S11" s="49"/>
       <c r="T11" s="43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U11" s="43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V11" s="43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W11" s="43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X11" s="44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
@@ -3394,52 +3455,52 @@
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
       <c r="I12" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M12" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="43" t="s">
-        <v>62</v>
-      </c>
       <c r="O12" s="44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="43" t="s">
-        <v>62</v>
-      </c>
       <c r="R12" s="44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S12" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T12" s="43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U12" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="V12" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="44" t="s">
-        <v>64</v>
-      </c>
       <c r="W12" s="43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X12" s="44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
@@ -3451,73 +3512,73 @@
     <row r="13" ht="157.5" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="52" t="s">
+      <c r="K13" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="54" t="s">
-        <v>42</v>
+      <c r="L13" s="53" t="s">
+        <v>44</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N13" s="42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T13" s="43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U13" s="44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V13" s="44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W13" s="43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X13" s="44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
@@ -3546,20 +3607,20 @@
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
       <c r="S14" s="45"/>
-      <c r="T14" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="U14" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" s="56" t="s">
+      <c r="T14" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="W14" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="X14" s="58" t="s">
-        <v>79</v>
+      <c r="U14" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="V14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="X14" s="57" t="s">
+        <v>81</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
@@ -3589,19 +3650,19 @@
       <c r="R15" s="45"/>
       <c r="S15" s="45"/>
       <c r="T15" s="43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U15" s="44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V15" s="43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W15" s="43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X15" s="44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
@@ -3631,19 +3692,19 @@
       <c r="R16" s="45"/>
       <c r="S16" s="45"/>
       <c r="T16" s="43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U16" s="44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V16" s="43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W16" s="43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X16" s="47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y16" s="24"/>
       <c r="Z16" s="24"/>
@@ -3673,19 +3734,19 @@
       <c r="R17" s="48"/>
       <c r="S17" s="45"/>
       <c r="T17" s="43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U17" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V17" s="43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="W17" s="43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X17" s="44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
@@ -3704,55 +3765,55 @@
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
       <c r="I18" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="N18" s="43" t="s">
-        <v>62</v>
-      </c>
       <c r="O18" s="44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="Q18" s="43" t="s">
-        <v>62</v>
-      </c>
       <c r="R18" s="44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S18" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T18" s="43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U18" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="V18" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="V18" s="44" t="s">
-        <v>64</v>
-      </c>
       <c r="W18" s="43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X18" s="44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y18" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
@@ -3762,74 +3823,74 @@
     </row>
     <row r="19" ht="296.25" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="59">
+      <c r="B19" s="58">
         <v>3.0</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>93</v>
+      <c r="C19" s="59" t="s">
+        <v>95</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>94</v>
+        <v>42</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>96</v>
       </c>
       <c r="F19" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="62" t="s">
+      <c r="K19" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="61" t="s">
-        <v>94</v>
-      </c>
       <c r="L19" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="N19" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="R19" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="S19" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="T19" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="U19" s="63" t="s">
+      <c r="O19" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="V19" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="W19" s="60" t="s">
+      <c r="R19" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="S19" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="X19" s="61" t="s">
+      <c r="T19" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="U19" s="62" t="s">
         <v>101</v>
+      </c>
+      <c r="V19" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="W19" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="X19" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
@@ -3841,7 +3902,7 @@
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="64"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -11092,108 +11153,108 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1"/>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="B2" s="65" t="s">
-        <v>102</v>
+      <c r="B2" s="64" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="C3" s="66"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="L4" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="S4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>105</v>
       </c>
+      <c r="C4" s="65"/>
+      <c r="L4" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="64" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="67" t="s">
+      <c r="C5" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="D5" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="E5" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="G5" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="H5" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="67" t="s">
+      <c r="L5" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="P5" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="P5" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q5" s="67" t="s">
+      <c r="Q5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="T5" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="U5" s="67" t="s">
+      <c r="S5" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="U5" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="V5" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="V5" s="67" t="s">
+      <c r="W5" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="X5" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="W5" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="X5" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y5" s="67" t="s">
+      <c r="Y5" s="66" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="70">
+      <c r="B6" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="69">
         <v>45034.493055555555</v>
       </c>
-      <c r="D6" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>118</v>
+      <c r="D6" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="G6" s="17">
         <v>3.0</v>
@@ -11207,11 +11268,11 @@
       <c r="J6" s="18">
         <v>45017.0</v>
       </c>
-      <c r="L6" s="69" t="s">
-        <v>117</v>
+      <c r="L6" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N6" s="17">
         <v>1.0</v>
@@ -11225,11 +11286,11 @@
       <c r="Q6" s="18">
         <v>45034.0</v>
       </c>
-      <c r="S6" s="69" t="s">
-        <v>117</v>
+      <c r="S6" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U6" s="17">
         <v>8.0</v>
@@ -11248,20 +11309,20 @@
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="70">
+      <c r="B7" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="69">
         <v>45034.493055555555</v>
       </c>
-      <c r="D7" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>118</v>
+      <c r="D7" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="G7" s="17">
         <v>3.0</v>
@@ -11275,11 +11336,11 @@
       <c r="J7" s="18">
         <v>45017.0</v>
       </c>
-      <c r="L7" s="69" t="s">
-        <v>121</v>
+      <c r="L7" s="68" t="s">
+        <v>123</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N7" s="17">
         <v>1.0</v>
@@ -11293,11 +11354,11 @@
       <c r="Q7" s="18">
         <v>45034.0</v>
       </c>
-      <c r="S7" s="69" t="s">
-        <v>121</v>
+      <c r="S7" s="68" t="s">
+        <v>123</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U7" s="17">
         <v>5.0</v>
@@ -11316,20 +11377,20 @@
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="70">
+      <c r="B8" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="69">
         <v>45035.493055555555</v>
       </c>
-      <c r="D8" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>118</v>
+      <c r="D8" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="G8" s="17">
         <v>3.0</v>
@@ -11343,11 +11404,11 @@
       <c r="J8" s="18">
         <v>45017.0</v>
       </c>
-      <c r="L8" s="69" t="s">
-        <v>124</v>
+      <c r="L8" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N8" s="17">
         <v>2.0</v>
@@ -11363,20 +11424,20 @@
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="70">
+      <c r="B9" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="69">
         <v>45034.493055555555</v>
       </c>
-      <c r="D9" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>118</v>
+      <c r="D9" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="G9" s="17">
         <v>3.0</v>
@@ -11390,11 +11451,11 @@
       <c r="J9" s="18">
         <v>45017.0</v>
       </c>
-      <c r="L9" s="69" t="s">
-        <v>126</v>
+      <c r="L9" s="68" t="s">
+        <v>128</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N9" s="17">
         <v>1.0</v>
@@ -11410,20 +11471,20 @@
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="70">
+      <c r="B10" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="69">
         <v>45034.493055555555</v>
       </c>
-      <c r="D10" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>118</v>
+      <c r="D10" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="G10" s="17">
         <v>3.0</v>
@@ -11437,11 +11498,11 @@
       <c r="J10" s="18">
         <v>45017.0</v>
       </c>
-      <c r="L10" s="69" t="s">
-        <v>128</v>
+      <c r="L10" s="68" t="s">
+        <v>130</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" s="17">
         <v>1.0</v>
@@ -11457,20 +11518,20 @@
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="70">
+      <c r="B11" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="69">
         <v>45034.989583333336</v>
       </c>
-      <c r="D11" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>118</v>
+      <c r="D11" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="G11" s="17">
         <v>3.0</v>
@@ -11486,20 +11547,20 @@
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="70">
+      <c r="B12" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="69">
         <v>45034.989583333336</v>
       </c>
-      <c r="D12" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>118</v>
+      <c r="D12" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="G12" s="17">
         <v>3.0</v>
@@ -11515,222 +11576,222 @@
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="C13" s="66"/>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" ht="18.75" customHeight="1"/>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="71" t="s">
-        <v>132</v>
+      <c r="B15" s="70" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="72" t="s">
-        <v>133</v>
+      <c r="B16" s="71" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="67" t="s">
+      <c r="B17" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="C17" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="67" t="s">
+      <c r="F17" s="66" t="s">
         <v>110</v>
       </c>
+      <c r="G17" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="66" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="70">
+      <c r="B18" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="69">
         <v>45034.493055555555</v>
       </c>
-      <c r="D18" s="69" t="s">
-        <v>117</v>
+      <c r="D18" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="E18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="69" t="s">
-        <v>117</v>
-      </c>
       <c r="G18" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="68" t="s">
         <v>120</v>
-      </c>
-      <c r="H18" s="69" t="s">
-        <v>118</v>
       </c>
       <c r="I18" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="70">
+      <c r="B19" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="69">
         <v>45034.493055555555</v>
       </c>
-      <c r="D19" s="69" t="s">
-        <v>121</v>
+      <c r="D19" s="68" t="s">
+        <v>123</v>
       </c>
       <c r="E19" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="68" t="s">
         <v>120</v>
-      </c>
-      <c r="H19" s="69" t="s">
-        <v>118</v>
       </c>
       <c r="I19" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="70">
+      <c r="B20" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="69">
         <v>45035.493055555555</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>124</v>
+      <c r="D20" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="68" t="s">
         <v>120</v>
-      </c>
-      <c r="H20" s="69" t="s">
-        <v>118</v>
       </c>
       <c r="I20" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="70">
+      <c r="B21" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="69">
         <v>45034.493055555555</v>
       </c>
-      <c r="D21" s="69" t="s">
-        <v>126</v>
+      <c r="D21" s="68" t="s">
+        <v>128</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="69" t="s">
-        <v>117</v>
+        <v>129</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="68" t="s">
         <v>120</v>
-      </c>
-      <c r="H21" s="69" t="s">
-        <v>118</v>
       </c>
       <c r="I21" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="70">
+      <c r="B22" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="69">
         <v>45034.493055555555</v>
       </c>
-      <c r="D22" s="69" t="s">
-        <v>128</v>
+      <c r="D22" s="68" t="s">
+        <v>130</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>117</v>
+        <v>131</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="G22" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="68" t="s">
         <v>120</v>
-      </c>
-      <c r="H22" s="69" t="s">
-        <v>118</v>
       </c>
       <c r="I22" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="70">
+      <c r="B23" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="69">
         <v>45034.989583333336</v>
       </c>
-      <c r="D23" s="69" t="s">
-        <v>124</v>
+      <c r="D23" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="E23" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="69" t="s">
-        <v>118</v>
+      <c r="H23" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="I23" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="70">
+      <c r="B24" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="69">
         <v>45034.989583333336</v>
       </c>
-      <c r="D24" s="69" t="s">
-        <v>121</v>
+      <c r="D24" s="68" t="s">
+        <v>123</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>123</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="69" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="I24" s="17">
         <v>3.0</v>
@@ -11738,110 +11799,110 @@
     </row>
     <row r="25" ht="18.75" customHeight="1"/>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>135</v>
+      <c r="B26" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="67" t="s">
-        <v>110</v>
+      <c r="B27" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="75" t="s">
+      <c r="B28" s="68" t="s">
         <v>119</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>121</v>
       </c>
       <c r="D28" s="17">
         <v>1.0</v>
       </c>
-      <c r="E28" s="69" t="s">
-        <v>118</v>
+      <c r="E28" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="F28" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>122</v>
+      <c r="B29" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>124</v>
       </c>
       <c r="D29" s="17">
         <v>2.0</v>
       </c>
-      <c r="E29" s="69" t="s">
-        <v>118</v>
+      <c r="E29" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="F29" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="B30" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="75" t="s">
-        <v>125</v>
+      <c r="B30" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>127</v>
       </c>
       <c r="D30" s="17">
         <v>2.0</v>
       </c>
-      <c r="E30" s="69" t="s">
-        <v>118</v>
+      <c r="E30" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="F30" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="B31" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>127</v>
+      <c r="B31" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="D31" s="17">
         <v>1.0</v>
       </c>
-      <c r="E31" s="69" t="s">
-        <v>118</v>
+      <c r="E31" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="F31" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="B32" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>129</v>
+      <c r="B32" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>131</v>
       </c>
       <c r="D32" s="17">
         <v>1.0</v>
       </c>
-      <c r="E32" s="69" t="s">
-        <v>118</v>
+      <c r="E32" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="F32" s="17">
         <v>3.0</v>
@@ -11849,789 +11910,789 @@
     </row>
     <row r="33" ht="18.75" customHeight="1"/>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="B34" s="72" t="s">
-        <v>137</v>
+      <c r="B34" s="71" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1"/>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="B36" s="65" t="s">
-        <v>138</v>
+      <c r="B36" s="64" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="B37" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="J37" s="71" t="s">
+      <c r="B37" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="L37" s="65" t="s">
+      <c r="D37" s="64" t="s">
         <v>142</v>
       </c>
+      <c r="J37" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" s="64" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="B38" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="67" t="s">
+      <c r="B38" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="H38" s="67" t="s">
+      <c r="C38" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="K38" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="L38" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="M38" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="N38" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="O38" s="67" t="s">
+      <c r="G38" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="P38" s="67" t="s">
+      <c r="K38" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="L38" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="N38" s="66" t="s">
         <v>115</v>
       </c>
+      <c r="O38" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="P38" s="66" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="B39" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="77">
+      <c r="B39" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="76">
         <v>45034.493055555555</v>
       </c>
-      <c r="D39" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="78" t="s">
+      <c r="D39" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="J39" s="76" t="s">
+      <c r="E39" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K39" s="77">
+      <c r="G39" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" s="76">
         <v>45034.493055555555</v>
       </c>
-      <c r="L39" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="M39" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="N39" s="78" t="s">
+      <c r="L39" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="M39" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="O39" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="P39" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="O39" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="P39" s="78" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="J40" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="K40" s="70">
+      <c r="J40" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="K40" s="69">
         <v>45034.989583333336</v>
       </c>
-      <c r="L40" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="M40" s="74" t="s">
-        <v>121</v>
+      <c r="L40" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="M40" s="73" t="s">
+        <v>123</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="O40" s="69" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="O40" s="68" t="s">
+        <v>123</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1"/>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="B42" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="65" t="s">
+      <c r="B42" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="L42" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="J42" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="L42" s="65" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="B43" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="67" t="s">
+      <c r="B43" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="H43" s="67" t="s">
+      <c r="C43" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="J43" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="K43" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="L43" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="M43" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="N43" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="O43" s="67" t="s">
+      <c r="G43" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="P43" s="67" t="s">
+      <c r="K43" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="L43" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="M43" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="N43" s="66" t="s">
         <v>115</v>
       </c>
+      <c r="O43" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="P43" s="66" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="B44" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="77">
+      <c r="B44" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="76">
         <v>45034.989583333336</v>
       </c>
-      <c r="D44" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="78" t="s">
+      <c r="D44" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="G44" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="H44" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" s="76" t="s">
+      <c r="J44" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="K44" s="76">
+        <v>45034.493055555555</v>
+      </c>
+      <c r="L44" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="M44" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="N44" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="O44" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" s="77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="B45" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="K44" s="77">
-        <v>45034.493055555555</v>
-      </c>
-      <c r="L44" s="76" t="s">
+      <c r="C45" s="69">
+        <v>45035.493055555555</v>
+      </c>
+      <c r="D45" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="M44" s="74" t="s">
+      <c r="E45" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="N44" s="78" t="s">
+      <c r="F45" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="O44" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="P44" s="78" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="B45" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="70">
-        <v>45035.493055555555</v>
-      </c>
-      <c r="D45" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G45" s="69" t="s">
-        <v>117</v>
+      <c r="G45" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1"/>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="B47" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>140</v>
+      <c r="B47" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="B48" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="67" t="s">
+      <c r="B48" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="H48" s="67" t="s">
+      <c r="C48" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="66" t="s">
         <v>115</v>
       </c>
+      <c r="G48" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="66" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="B49" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="77">
+      <c r="B49" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="76">
         <v>45034.493055555555</v>
       </c>
-      <c r="D49" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="H49" s="78" t="s">
-        <v>120</v>
+      <c r="D49" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="77" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1"/>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="B51" s="65" t="s">
-        <v>146</v>
+      <c r="B51" s="64" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="B52" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" s="80" t="s">
+      <c r="B52" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="78" t="s">
         <v>149</v>
       </c>
+      <c r="E52" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="79" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="B53" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="75" t="s">
+      <c r="B53" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="77">
+      <c r="C53" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="B54" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="75" t="s">
+      <c r="B54" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" s="77">
+      <c r="F54" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="B55" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="75" t="s">
+      <c r="B55" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="77">
+      <c r="F55" s="76">
         <v>45034.989583333336</v>
       </c>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="B56" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="F56" s="77">
+      <c r="B56" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="57" ht="18.75" customHeight="1">
-      <c r="B57" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="F57" s="77">
+      <c r="B57" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="58" ht="18.75" customHeight="1"/>
     <row r="59" ht="18.75" customHeight="1">
-      <c r="B59" s="82" t="s">
+      <c r="B59" s="81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="B60" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="H60" s="70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="B61" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="J61" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="K61" s="79" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="60" ht="18.75" customHeight="1">
-      <c r="B60" s="71" t="s">
+      <c r="L61" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="H60" s="71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" ht="18.75" customHeight="1">
-      <c r="B61" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="H61" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="I61" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="J61" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="K61" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="L61" s="80" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="62" ht="18.75" customHeight="1">
-      <c r="B62" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="75" t="s">
+      <c r="B62" s="68" t="s">
         <v>119</v>
+      </c>
+      <c r="C62" s="74" t="s">
+        <v>121</v>
       </c>
       <c r="D62" s="17">
         <v>1.0</v>
       </c>
-      <c r="E62" s="69" t="s">
-        <v>118</v>
+      <c r="E62" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="F62" s="17">
         <v>3.0</v>
       </c>
-      <c r="H62" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62" s="75" t="s">
+      <c r="H62" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="J62" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="K62" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="L62" s="77">
+      <c r="I62" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="K62" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="L62" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="63" ht="18.75" customHeight="1">
-      <c r="B63" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="75" t="s">
-        <v>122</v>
+      <c r="B63" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="74" t="s">
+        <v>124</v>
       </c>
       <c r="D63" s="17">
         <v>2.0</v>
       </c>
-      <c r="E63" s="69" t="s">
-        <v>118</v>
+      <c r="E63" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="F63" s="17">
         <v>3.0</v>
       </c>
-      <c r="H63" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="I63" s="75" t="s">
+      <c r="H63" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="K63" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="J63" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="K63" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="L63" s="77">
+      <c r="L63" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="64" ht="18.75" customHeight="1">
-      <c r="B64" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="75" t="s">
-        <v>125</v>
+      <c r="B64" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="74" t="s">
+        <v>127</v>
       </c>
       <c r="D64" s="17">
         <v>2.0</v>
       </c>
-      <c r="E64" s="69" t="s">
-        <v>118</v>
+      <c r="E64" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="F64" s="17">
         <v>3.0</v>
       </c>
-      <c r="H64" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I64" s="75" t="s">
+      <c r="H64" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="J64" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="K64" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="J64" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="K64" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="L64" s="77">
+      <c r="L64" s="76">
         <v>45034.989583333336</v>
       </c>
     </row>
     <row r="65" ht="18.75" customHeight="1">
-      <c r="B65" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="75" t="s">
-        <v>127</v>
+      <c r="B65" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="D65" s="17">
         <v>1.0</v>
       </c>
-      <c r="E65" s="69" t="s">
-        <v>118</v>
+      <c r="E65" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="F65" s="17">
         <v>3.0</v>
       </c>
-      <c r="H65" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="I65" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="J65" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="K65" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="L65" s="77">
+      <c r="H65" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="J65" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="K65" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="L65" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="66" ht="18.75" customHeight="1">
-      <c r="B66" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="75" t="s">
-        <v>129</v>
+      <c r="B66" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>131</v>
       </c>
       <c r="D66" s="17">
         <v>1.0</v>
       </c>
-      <c r="E66" s="69" t="s">
-        <v>118</v>
+      <c r="E66" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="F66" s="17">
         <v>3.0</v>
       </c>
-      <c r="H66" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="I66" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="J66" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="K66" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="L66" s="77">
+      <c r="H66" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="J66" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="K66" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="L66" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="67" ht="18.75" customHeight="1">
-      <c r="B67" s="71"/>
-      <c r="C67" s="83"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="83"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="82"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="82"/>
     </row>
     <row r="68" ht="18.75" customHeight="1">
-      <c r="B68" s="71" t="s">
-        <v>153</v>
+      <c r="B68" s="70" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="69" ht="18.75" customHeight="1">
-      <c r="B69" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="F69" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="G69" s="80" t="s">
+      <c r="B69" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="78" t="s">
         <v>149</v>
       </c>
+      <c r="F69" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="79" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="70" ht="18.75" customHeight="1">
-      <c r="B70" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" s="75" t="s">
+      <c r="B70" s="68" t="s">
         <v>119</v>
+      </c>
+      <c r="C70" s="74" t="s">
+        <v>121</v>
       </c>
       <c r="D70" s="17">
         <v>1.0</v>
       </c>
-      <c r="E70" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F70" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G70" s="77">
+      <c r="E70" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G70" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="71" ht="18.75" customHeight="1">
-      <c r="B71" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="75" t="s">
-        <v>122</v>
+      <c r="B71" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="74" t="s">
+        <v>124</v>
       </c>
       <c r="D71" s="17">
         <v>2.0</v>
       </c>
-      <c r="E71" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F71" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G71" s="77">
+      <c r="E71" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G71" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="72" ht="18.75" customHeight="1">
-      <c r="B72" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="75" t="s">
-        <v>125</v>
+      <c r="B72" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="74" t="s">
+        <v>127</v>
       </c>
       <c r="D72" s="17">
         <v>2.0</v>
       </c>
-      <c r="E72" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="F72" s="78" t="s">
+      <c r="E72" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="G72" s="77">
+      <c r="F72" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G72" s="76">
         <v>45034.989583333336</v>
       </c>
     </row>
     <row r="73" ht="18.75" customHeight="1">
-      <c r="B73" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="75" t="s">
-        <v>127</v>
+      <c r="B73" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="D73" s="17">
         <v>1.0</v>
       </c>
-      <c r="E73" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F73" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G73" s="77">
+      <c r="E73" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G73" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="74" ht="18.75" customHeight="1">
-      <c r="B74" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="75" t="s">
-        <v>129</v>
+      <c r="B74" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="74" t="s">
+        <v>131</v>
       </c>
       <c r="D74" s="17">
         <v>1.0</v>
       </c>
-      <c r="E74" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G74" s="77">
+      <c r="E74" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="76">
         <v>45034.493055555555</v>
       </c>
     </row>
     <row r="75" ht="18.75" customHeight="1"/>
     <row r="76" ht="18.75" customHeight="1">
-      <c r="B76" s="82" t="s">
-        <v>154</v>
+      <c r="B76" s="81" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="77" ht="18.75" customHeight="1">
-      <c r="B77" s="65" t="s">
-        <v>155</v>
+      <c r="B77" s="64" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="78" ht="18.75" customHeight="1">
-      <c r="B78" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="67" t="s">
-        <v>110</v>
+      <c r="B78" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="66" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="79" ht="18.75" customHeight="1">
-      <c r="B79" s="69" t="s">
-        <v>118</v>
+      <c r="B79" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="C79" s="17">
         <v>3.0</v>
@@ -12640,152 +12701,152 @@
     <row r="80" ht="18.75" customHeight="1"/>
     <row r="81" ht="18.75" customHeight="1"/>
     <row r="82" ht="18.75" customHeight="1">
-      <c r="B82" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
+      <c r="B82" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
     </row>
     <row r="83" ht="18.75" customHeight="1">
-      <c r="B83" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="D83" s="88" t="s">
+      <c r="B83" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="E83" s="88" t="s">
+      <c r="C83" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="F83" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="G83" s="88" t="s">
+      <c r="D83" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="G83" s="87" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="84" ht="18.75" customHeight="1">
-      <c r="B84" s="89">
+      <c r="B84" s="88">
         <v>202303.0</v>
       </c>
-      <c r="C84" s="90">
+      <c r="C84" s="89">
         <v>5.0</v>
       </c>
-      <c r="D84" s="91">
+      <c r="D84" s="90">
         <v>45011.0</v>
       </c>
-      <c r="E84" s="91">
+      <c r="E84" s="90">
         <v>45017.0</v>
       </c>
-      <c r="F84" s="92">
+      <c r="F84" s="91">
         <v>45049.0</v>
       </c>
-      <c r="G84" s="92">
+      <c r="G84" s="91">
         <v>45049.0</v>
       </c>
     </row>
     <row r="85" ht="18.75" customHeight="1">
-      <c r="B85" s="89">
+      <c r="B85" s="88">
         <v>202304.0</v>
       </c>
-      <c r="C85" s="90">
+      <c r="C85" s="89">
         <v>1.0</v>
       </c>
-      <c r="D85" s="91">
+      <c r="D85" s="90">
         <v>45018.0</v>
       </c>
-      <c r="E85" s="91">
+      <c r="E85" s="90">
         <v>45024.0</v>
       </c>
-      <c r="F85" s="92">
+      <c r="F85" s="91">
         <v>45049.0</v>
       </c>
-      <c r="G85" s="92">
+      <c r="G85" s="91">
         <v>45049.0</v>
       </c>
     </row>
     <row r="86" ht="18.75" customHeight="1">
-      <c r="B86" s="89">
+      <c r="B86" s="88">
         <v>202304.0</v>
       </c>
-      <c r="C86" s="90">
+      <c r="C86" s="89">
         <v>2.0</v>
       </c>
-      <c r="D86" s="91">
+      <c r="D86" s="90">
         <v>45025.0</v>
       </c>
-      <c r="E86" s="91">
+      <c r="E86" s="90">
         <v>45031.0</v>
       </c>
-      <c r="F86" s="92">
+      <c r="F86" s="91">
         <v>45049.0</v>
       </c>
-      <c r="G86" s="92">
+      <c r="G86" s="91">
         <v>45049.0</v>
       </c>
     </row>
     <row r="87" ht="18.75" customHeight="1">
-      <c r="B87" s="89">
+      <c r="B87" s="88">
         <v>202304.0</v>
       </c>
-      <c r="C87" s="90">
+      <c r="C87" s="89">
         <v>3.0</v>
       </c>
-      <c r="D87" s="91">
+      <c r="D87" s="90">
         <v>45032.0</v>
       </c>
-      <c r="E87" s="91">
+      <c r="E87" s="90">
         <v>45038.0</v>
       </c>
-      <c r="F87" s="92">
+      <c r="F87" s="91">
         <v>45049.0</v>
       </c>
-      <c r="G87" s="92">
+      <c r="G87" s="91">
         <v>45049.0</v>
       </c>
     </row>
     <row r="88" ht="18.75" customHeight="1">
-      <c r="B88" s="89">
+      <c r="B88" s="88">
         <v>202304.0</v>
       </c>
-      <c r="C88" s="90">
+      <c r="C88" s="89">
         <v>4.0</v>
       </c>
-      <c r="D88" s="91">
+      <c r="D88" s="90">
         <v>45039.0</v>
       </c>
-      <c r="E88" s="91">
+      <c r="E88" s="90">
         <v>45045.0</v>
       </c>
-      <c r="F88" s="92">
+      <c r="F88" s="91">
         <v>45049.0</v>
       </c>
-      <c r="G88" s="92">
+      <c r="G88" s="91">
         <v>45049.0</v>
       </c>
     </row>
     <row r="89" ht="18.75" customHeight="1">
-      <c r="B89" s="89">
+      <c r="B89" s="88">
         <v>202304.0</v>
       </c>
-      <c r="C89" s="90">
+      <c r="C89" s="89">
         <v>5.0</v>
       </c>
-      <c r="D89" s="91">
+      <c r="D89" s="90">
         <v>45046.0</v>
       </c>
-      <c r="E89" s="91">
+      <c r="E89" s="90">
         <v>45052.0</v>
       </c>
-      <c r="F89" s="92">
+      <c r="F89" s="91">
         <v>45049.0</v>
       </c>
-      <c r="G89" s="92">
+      <c r="G89" s="91">
         <v>45049.0</v>
       </c>
     </row>
@@ -12793,163 +12854,163 @@
     <row r="91" ht="18.75" customHeight="1"/>
     <row r="92" ht="18.75" customHeight="1"/>
     <row r="93" ht="18.75" customHeight="1">
-      <c r="B93" s="71" t="s">
-        <v>161</v>
+      <c r="B93" s="70" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="94" ht="18.75" customHeight="1">
-      <c r="B94" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="D94" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="F94" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="G94" s="80" t="s">
+      <c r="B94" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="H94" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="I94" s="80" t="s">
-        <v>163</v>
+      <c r="F94" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="G94" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="H94" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="I94" s="79" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="95" ht="18.75" customHeight="1">
-      <c r="B95" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="75" t="s">
+      <c r="B95" s="68" t="s">
         <v>119</v>
+      </c>
+      <c r="C95" s="74" t="s">
+        <v>121</v>
       </c>
       <c r="D95" s="17">
         <v>1.0</v>
       </c>
-      <c r="E95" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F95" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G95" s="77">
+      <c r="E95" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G95" s="76">
         <v>45034.493055555555</v>
       </c>
-      <c r="H95" s="91">
+      <c r="H95" s="90">
         <v>45032.0</v>
       </c>
-      <c r="I95" s="91">
+      <c r="I95" s="90">
         <v>45038.0</v>
       </c>
     </row>
     <row r="96" ht="18.75" customHeight="1">
-      <c r="B96" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C96" s="75" t="s">
-        <v>122</v>
+      <c r="B96" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="74" t="s">
+        <v>124</v>
       </c>
       <c r="D96" s="17">
         <v>2.0</v>
       </c>
-      <c r="E96" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F96" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G96" s="77">
+      <c r="E96" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F96" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G96" s="76">
         <v>45034.493055555555</v>
       </c>
-      <c r="H96" s="91">
+      <c r="H96" s="90">
         <v>45032.0</v>
       </c>
-      <c r="I96" s="91">
+      <c r="I96" s="90">
         <v>45038.0</v>
       </c>
     </row>
     <row r="97" ht="18.75" customHeight="1">
-      <c r="B97" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C97" s="75" t="s">
-        <v>125</v>
+      <c r="B97" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="74" t="s">
+        <v>127</v>
       </c>
       <c r="D97" s="17">
         <v>2.0</v>
       </c>
-      <c r="E97" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="F97" s="78" t="s">
+      <c r="E97" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="G97" s="77">
+      <c r="F97" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G97" s="76">
         <v>45034.989583333336</v>
       </c>
-      <c r="H97" s="91">
+      <c r="H97" s="90">
         <v>45032.0</v>
       </c>
-      <c r="I97" s="91">
+      <c r="I97" s="90">
         <v>45038.0</v>
       </c>
     </row>
     <row r="98" ht="18.75" customHeight="1">
-      <c r="B98" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C98" s="75" t="s">
-        <v>127</v>
+      <c r="B98" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="D98" s="17">
         <v>1.0</v>
       </c>
-      <c r="E98" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F98" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G98" s="77">
+      <c r="E98" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F98" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G98" s="76">
         <v>45034.493055555555</v>
       </c>
-      <c r="H98" s="91">
+      <c r="H98" s="90">
         <v>45032.0</v>
       </c>
-      <c r="I98" s="91">
+      <c r="I98" s="90">
         <v>45038.0</v>
       </c>
     </row>
     <row r="99" ht="18.75" customHeight="1">
-      <c r="B99" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C99" s="75" t="s">
-        <v>129</v>
+      <c r="B99" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="74" t="s">
+        <v>131</v>
       </c>
       <c r="D99" s="17">
         <v>1.0</v>
       </c>
-      <c r="E99" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F99" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G99" s="77">
+      <c r="E99" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F99" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G99" s="76">
         <v>45034.493055555555</v>
       </c>
-      <c r="H99" s="91">
+      <c r="H99" s="90">
         <v>45032.0</v>
       </c>
-      <c r="I99" s="91">
+      <c r="I99" s="90">
         <v>45038.0</v>
       </c>
     </row>
